--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.020620-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.020620-2.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3495,12 +3495,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4255,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4465,12 +4465,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4885,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5855,12 +5855,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6401,12 +6401,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6779,12 +6779,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7031,12 +7031,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7971,12 +7971,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8391,12 +8391,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8517,12 +8517,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8773,12 +8773,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8941,12 +8941,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9025,12 +9025,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9155,12 +9155,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9197,12 +9197,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9365,12 +9365,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9491,12 +9491,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9533,12 +9533,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9617,12 +9617,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9827,12 +9827,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10079,12 +10079,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10457,12 +10457,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10709,12 +10709,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11003,12 +11003,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11129,12 +11129,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11213,12 +11213,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11427,12 +11427,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11557,12 +11557,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11897,12 +11897,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12191,12 +12191,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12443,12 +12443,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12569,12 +12569,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12611,12 +12611,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13325,12 +13325,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14333,12 +14333,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14459,12 +14459,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14543,12 +14543,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14879,12 +14879,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15257,12 +15257,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15467,12 +15467,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15509,12 +15509,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15635,12 +15635,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16017,12 +16017,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16395,12 +16395,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16479,12 +16479,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17403,12 +17403,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17445,12 +17445,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17613,12 +17613,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18411,12 +18411,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19041,12 +19041,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19209,12 +19209,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19293,12 +19293,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19377,12 +19377,12 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19419,12 +19419,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20095,12 +20095,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20389,12 +20389,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20683,12 +20683,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21023,12 +21023,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21703,12 +21703,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21955,12 +21955,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22081,12 +22081,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22207,12 +22207,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22921,12 +22921,12 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23257,12 +23257,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23345,12 +23345,12 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23387,12 +23387,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23559,12 +23559,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23769,12 +23769,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24067,12 +24067,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24151,12 +24151,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24193,12 +24193,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24235,12 +24235,12 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24659,12 +24659,12 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24701,12 +24701,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25251,12 +25251,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25293,12 +25293,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25377,12 +25377,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25503,12 +25503,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25629,12 +25629,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25755,12 +25755,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25797,12 +25797,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25965,12 +25965,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26091,12 +26091,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26259,12 +26259,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26385,12 +26385,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26511,12 +26511,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26637,12 +26637,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26721,12 +26721,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26763,12 +26763,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26973,12 +26973,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27057,12 +27057,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27351,12 +27351,12 @@
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27435,12 +27435,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27645,12 +27645,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27855,12 +27855,12 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28107,12 +28107,12 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28443,12 +28443,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28527,12 +28527,12 @@
       <c r="H667" t="inlineStr"/>
       <c r="I667" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28695,12 +28695,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28737,12 +28737,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28863,12 +28863,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28905,12 +28905,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29997,12 +29997,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30123,12 +30123,12 @@
       <c r="H705" t="inlineStr"/>
       <c r="I705" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30253,12 +30253,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31143,12 +31143,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31227,12 +31227,12 @@
       <c r="H731" t="inlineStr"/>
       <c r="I731" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33419,12 +33419,12 @@
       <c r="H783" t="inlineStr"/>
       <c r="I783" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33587,12 +33587,12 @@
       <c r="H787" t="inlineStr"/>
       <c r="I787" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33923,12 +33923,12 @@
       <c r="H795" t="inlineStr"/>
       <c r="I795" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34217,12 +34217,12 @@
       <c r="H802" t="inlineStr"/>
       <c r="I802" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34469,12 +34469,12 @@
       <c r="H808" t="inlineStr"/>
       <c r="I808" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34721,12 +34721,12 @@
       <c r="H814" t="inlineStr"/>
       <c r="I814" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
